--- a/CTMS-A-2021-1-ExcelPurge.xlsx
+++ b/CTMS-A-2021-1-ExcelPurge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C529E6B3-23E3-49E7-8908-392D6FBF49D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ECC1C5-D4E4-443F-A829-B9BEFE34EF99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="4050" windowWidth="17955" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lettre A" sheetId="2" r:id="rId1"/>
@@ -9304,7 +9304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9450,6 +9450,19 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -9907,7 +9920,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9960,11 +9973,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -10578,8 +10594,8 @@
   </sheetPr>
   <dimension ref="A1:L505"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10599,7 +10615,7 @@
     <col min="13" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>2195</v>
       </c>
@@ -10633,7 +10649,7 @@
       <c r="K1" s="19" t="s">
         <v>2204</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10672,7 +10688,10 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Species Name]], Sheet1!$A$2:$A$346,Sheet1!$B$2:$B$346, "")</f>
         <v/>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Species Name]], Sheet1!$A$2:$A$346,Sheet1!$B$2:$B$346, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
